--- a/planilhas/tuberculose_pop_sit_rua.xlsx
+++ b/planilhas/tuberculose_pop_sit_rua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/alisonao_al_insper_edu_br/Documents/Insper/2023.2/Ciência de Dados/Projeto-Microdados-1/planilhas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\INSPER\2° Semestre\Ciência dos Dados\Projeto 2\Projeto-Microdados\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9E848D61-B048-42CD-90C7-CDC868637CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AD449-0A37-4507-BFD2-C1A9FD0F16E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tuberculose em pop sit rua" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10824" uniqueCount="3724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10784" uniqueCount="3686">
   <si>
     <t>Ign/Branco</t>
   </si>
@@ -11075,120 +11075,6 @@
   </si>
   <si>
     <t>530010 BRASILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fonte: Ministério da Saúde/SVSA - Sistema de Informação de Agravos de Notificação - Sinan Net </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notas:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excluídos os registros encerrados com mudança de diagnóstico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Períodos disponíveis - Correspondem aos anos de diagnóstico dos casos (até 2022).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Para tabular dados epidemiológicos de um determinado ano selecione na linha a variável de interesse,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     e na coluna a variável "Ano do diagnóstico"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> em "Períodos Disponíveis" assinale o ano inicial da série</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     e todos os posteriores até o ano atual (para incluir casos notificados com atraso) e em "Seleções Disponíveis"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     assinale os anos do diagnóstico: - Ex. para tabular o nº de casos diagnosticados em 2007 segundo UF de residência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     selecione: na linha a "UF de residência" na Coluna a variável "Ano do diagnóstico" em Períodos disponíveis 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     até o ano atual em Seleções o "Ano do diagnóstico" de 2007.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Para cálculo da incidência selecione o local de residência e as seguintes categorias da variável "Tipo de entrada":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     caso novo, não sabe e pós óbito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A variável "Beneficiário de programa de transferência de renda do governo" não contém dados do Estado de São Paulo (SP).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Quanto a variável "Terapia antirretroviral durante o tratamento da TB", os dados do estado de SP foram inseridos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     a partir do segundo semestre de 2016.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Não é possível calcular indicadores relacionados aos contatos de tuberculose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Em 2014, foram incluídas as seguintes variáveis no Sinan Net (Tuberculose): populações especiais (população privada de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     liberdade, população em situação de rua, profissional de saúde e imigrante), doenças e agravos associados (uso de drogas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ilícitas e tabagismo), beneficiário de programa de transferência de renda do governo, terapia antirretroviral durante o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     tratamento para a TB, teste molecular rápido TB (TRM-TB) e teste de sensibilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> as categorias: pós-óbito na variável</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     tipo de entrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e as categorias: mudança de esquema, falência e abandono primário na variável situação de encerramento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Por conta disso, não há informações para essas variáveis em anos anteriores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A variável "institucionalizado" foi descontinuada em 2015. Portanto, para análise referente à população privada de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     liberdade após esse período, utilizar a variável "PPL" (população privada de liberdade).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Para informações detalhadas sobre o Sinan – Tuberculose e sobre as análises de indicadores epidemiológicos e operacionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     da tuberculose, acessar o link: http://portalsinan.saude.gov.br/tuberculose .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Em caso de dúvidas, encaminhar e-mail para: tuberculose@saude.gov.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dados de 2001 a 2018 estão finalizados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dados de 2018 a 2022 atualizados em 09/2023, sujeitos à revisão.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dados a partir de 2020 referentes ao estado do Espírito Santo são oriundos do Sistema de Informação e-SUS VS, em uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     pelo estado desde janeiro de 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dados referentes ao estado de São Paulo são oriundos do Sistema de Controle de Pacientes com Tuberculose TBWEB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dados disponibilizados no TABNET em 11/2023, após homologação da Coordenação Geral de Vigilância da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Tuberculose, Micoses Endêmicas e Micobactérias não Tuberculosas /CGTM/SVSA.</t>
   </si>
   <si>
     <t>Município</t>
@@ -11197,7 +11083,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12031,18 +11917,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3718"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3723</v>
+        <v>3685</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -74615,212 +74499,6 @@
       </c>
       <c r="E3681">
         <v>430</v>
-      </c>
-    </row>
-    <row r="3682" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3682" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3682">
-        <v>83188</v>
-      </c>
-      <c r="C3682">
-        <v>127</v>
-      </c>
-      <c r="D3682">
-        <v>2066</v>
-      </c>
-      <c r="E3682">
-        <v>85381</v>
-      </c>
-    </row>
-    <row r="3683" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3683" t="s">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="3684" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3684" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="3685" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3685" t="s">
-        <v>3687</v>
-      </c>
-    </row>
-    <row r="3686" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3686" t="s">
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="3687" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3687" t="s">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="3688" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3688" t="s">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="3689" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3689" t="s">
-        <v>3691</v>
-      </c>
-      <c r="B3689" t="s">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="3690" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3690" t="s">
-        <v>3693</v>
-      </c>
-    </row>
-    <row r="3691" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3691" t="s">
-        <v>3694</v>
-      </c>
-    </row>
-    <row r="3692" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3692" t="s">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="3693" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3693" t="s">
-        <v>3696</v>
-      </c>
-    </row>
-    <row r="3694" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3694" t="s">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="3695" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3695" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="3696" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3696" t="s">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="3697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3697" t="s">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="3698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3698" t="s">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="3699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3699" t="s">
-        <v>3702</v>
-      </c>
-    </row>
-    <row r="3700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3700" t="s">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="3701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3701" t="s">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="3702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3702" t="s">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="3703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3703" t="s">
-        <v>3706</v>
-      </c>
-      <c r="B3703" t="s">
-        <v>3707</v>
-      </c>
-    </row>
-    <row r="3704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3704" t="s">
-        <v>3708</v>
-      </c>
-      <c r="B3704" t="s">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="3705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3705" t="s">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="3706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3706" t="s">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="3707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3707" t="s">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="3708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3708" t="s">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="3709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3709" t="s">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="3710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3710" t="s">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="3711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3711" t="s">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="3712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3712" t="s">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="3713" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3713" t="s">
-        <v>3718</v>
-      </c>
-    </row>
-    <row r="3714" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3714" t="s">
-        <v>3719</v>
-      </c>
-    </row>
-    <row r="3715" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3715" t="s">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="3716" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3716" t="s">
-        <v>3721</v>
-      </c>
-    </row>
-    <row r="3717" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3717" t="s">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="3718" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3718" t="s">
-        <v>3687</v>
       </c>
     </row>
   </sheetData>
